--- a/hw4/tahoe_salt/generated_spreadsheet.xlsx
+++ b/hw4/tahoe_salt/generated_spreadsheet.xlsx
@@ -1345,22 +1345,22 @@
     </row>
     <row r="14" spans="1:11">
       <c r="D14">
-        <v>23750</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="D15">
-        <v>23750</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="D16">
-        <v>23750</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17">
-        <v>23750</v>
+        <v>24500</v>
       </c>
     </row>
   </sheetData>
@@ -1841,22 +1841,22 @@
     </row>
     <row r="15" spans="1:11">
       <c r="D15">
-        <v>21544.30582423547</v>
+        <v>23489.87524181193</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="D16">
-        <v>21544.30582423547</v>
+        <v>23489.87524181193</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17">
-        <v>21544.30582423547</v>
+        <v>23489.87524181193</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18">
-        <v>21544.30582423547</v>
+        <v>23489.87524181193</v>
       </c>
     </row>
   </sheetData>
@@ -2470,13 +2470,13 @@
         <v>8000</v>
       </c>
       <c r="C3">
-        <v>18862.6890944689</v>
+        <v>18782.60227480593</v>
       </c>
       <c r="D3">
-        <v>513.798671351652</v>
+        <v>505.7899893853545</v>
       </c>
       <c r="E3">
-        <v>0.4669243730778118</v>
+        <v>0.4671052118983504</v>
       </c>
       <c r="F3">
         <v>8944.385122803003</v>
@@ -2511,34 +2511,34 @@
         <v>13000</v>
       </c>
       <c r="C4">
-        <v>19358.78392305913</v>
+        <v>19264.45394236736</v>
       </c>
       <c r="D4">
-        <v>512.02828707551</v>
+        <v>503.3961572029625</v>
       </c>
       <c r="E4">
-        <v>0.6822169708840433</v>
+        <v>0.6825457909576081</v>
       </c>
       <c r="F4">
-        <v>13241.97769355335</v>
+        <v>13181.77283694694</v>
       </c>
       <c r="G4">
-        <v>241.9776935533519</v>
+        <v>181.7728369469369</v>
       </c>
       <c r="H4">
-        <v>241.9776935533519</v>
+        <v>181.7728369469369</v>
       </c>
       <c r="I4">
-        <v>475208.2321745219</v>
+        <v>462452.3122116908</v>
       </c>
       <c r="J4">
-        <v>593.1814081781777</v>
+        <v>563.0789798749702</v>
       </c>
       <c r="K4">
-        <v>1.861366873487322</v>
+        <v>1.398252591899515</v>
       </c>
       <c r="L4">
-        <v>6.833090454262432</v>
+        <v>6.601533313468529</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -2552,34 +2552,34 @@
         <v>23000</v>
       </c>
       <c r="C5">
-        <v>19859.58305279876</v>
+        <v>19756.90420631653</v>
       </c>
       <c r="D5">
-        <v>510.905371341922</v>
+        <v>502.3015678775828</v>
       </c>
       <c r="E5">
-        <v>1.16945041909158</v>
+        <v>1.1700523127902</v>
       </c>
       <c r="F5">
-        <v>23262.92131471292</v>
+        <v>23142.38273525652</v>
       </c>
       <c r="G5">
-        <v>262.9213147129194</v>
+        <v>142.3827352565168</v>
       </c>
       <c r="H5">
-        <v>262.9213147129194</v>
+        <v>142.3827352565168</v>
       </c>
       <c r="I5">
-        <v>339848.0273598046</v>
+        <v>315059.155907503</v>
       </c>
       <c r="J5">
-        <v>483.0947103564249</v>
+        <v>422.8468983354857</v>
       </c>
       <c r="K5">
-        <v>1.143136150925737</v>
+        <v>0.6190553706805076</v>
       </c>
       <c r="L5">
-        <v>4.936439019816867</v>
+        <v>4.607373999205856</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -2593,37 +2593,37 @@
         <v>34000</v>
       </c>
       <c r="C6">
-        <v>20373.34093399994</v>
+        <v>20274.35573043596</v>
       </c>
       <c r="D6">
-        <v>511.1906223278476</v>
+        <v>503.8165635017684</v>
       </c>
       <c r="E6">
-        <v>1.664862585658703</v>
+        <v>1.66567736476266</v>
       </c>
       <c r="F6">
-        <v>33905.04452150343</v>
+        <v>33719.82347415544</v>
       </c>
       <c r="G6">
-        <v>-94.95547849656577</v>
+        <v>-280.1765258445594</v>
       </c>
       <c r="H6">
-        <v>94.95547849656577</v>
+        <v>280.1765258445594</v>
       </c>
       <c r="I6">
-        <v>257140.1562439814</v>
+        <v>255919.088339209</v>
       </c>
       <c r="J6">
-        <v>386.0599023914601</v>
+        <v>387.1793052127541</v>
       </c>
       <c r="K6">
-        <v>0.2792808191075464</v>
+        <v>0.8240486054251746</v>
       </c>
       <c r="L6">
-        <v>3.772149469639537</v>
+        <v>3.661542650760685</v>
       </c>
       <c r="M6">
-        <v>3.508079042094964</v>
+        <v>2.552729848561492</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2634,37 +2634,37 @@
         <v>10000</v>
       </c>
       <c r="C7">
-        <v>20911.14220361525</v>
+        <v>20834.89756230393</v>
       </c>
       <c r="D7">
-        <v>513.8516870565942</v>
+        <v>509.4890903383878</v>
       </c>
       <c r="E7">
-        <v>0.4680533311898902</v>
+        <v>0.4683910869955446</v>
       </c>
       <c r="F7">
-        <v>9751.496803962129</v>
+        <v>9705.592572220217</v>
       </c>
       <c r="G7">
-        <v>-248.503196037871</v>
+        <v>-294.4074277797827</v>
       </c>
       <c r="H7">
-        <v>248.503196037871</v>
+        <v>294.4074277797827</v>
       </c>
       <c r="I7">
-        <v>218062.8926833924</v>
+        <v>222070.4173777488</v>
       </c>
       <c r="J7">
-        <v>358.5485611207423</v>
+        <v>368.6249297261598</v>
       </c>
       <c r="K7">
-        <v>2.48503196037871</v>
+        <v>2.944074277797827</v>
       </c>
       <c r="L7">
-        <v>3.514725967787371</v>
+        <v>3.518048976168114</v>
       </c>
       <c r="M7">
-        <v>3.084172066060664</v>
+        <v>1.882555099834496</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2675,37 +2675,37 @@
         <v>18000</v>
       </c>
       <c r="C8">
-        <v>21672.97259181089</v>
+        <v>21796.85898455247</v>
       </c>
       <c r="D8">
-        <v>538.6495571704986</v>
+        <v>554.7363235294036</v>
       </c>
       <c r="E8">
-        <v>0.6970480249757023</v>
+        <v>0.6968719177000449</v>
       </c>
       <c r="F8">
-        <v>14616.49443330328</v>
+        <v>14568.52127033276</v>
       </c>
       <c r="G8">
-        <v>-3383.50556669672</v>
+        <v>-3431.478729667237</v>
       </c>
       <c r="H8">
-        <v>3383.50556669672</v>
+        <v>3431.478729667237</v>
       </c>
       <c r="I8">
-        <v>2089737.397214109</v>
+        <v>2147566.393174569</v>
       </c>
       <c r="J8">
-        <v>862.7080620500719</v>
+        <v>879.1005630496726</v>
       </c>
       <c r="K8">
-        <v>18.79725314831511</v>
+        <v>19.06377072037354</v>
       </c>
       <c r="L8">
-        <v>6.061813831208661</v>
+        <v>6.109002600202351</v>
       </c>
       <c r="M8">
-        <v>-2.640151646142475</v>
+        <v>-3.114003224828376</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2716,37 +2716,37 @@
         <v>23000</v>
       </c>
       <c r="C9">
-        <v>22084.40893915838</v>
+        <v>22109.10339765365</v>
       </c>
       <c r="D9">
-        <v>525.9282361881975</v>
+        <v>530.4871324865809</v>
       </c>
       <c r="E9">
-        <v>1.156651247979164</v>
+        <v>1.157076628012107</v>
       </c>
       <c r="F9">
-        <v>25975.3908308301</v>
+        <v>26152.53578477179</v>
       </c>
       <c r="G9">
-        <v>2975.3908308301</v>
+        <v>3152.53578477179</v>
       </c>
       <c r="H9">
-        <v>2975.3908308301</v>
+        <v>3152.53578477179</v>
       </c>
       <c r="I9">
-        <v>3055910.711353213</v>
+        <v>3260554.319044871</v>
       </c>
       <c r="J9">
-        <v>1164.519886161504</v>
+        <v>1203.877023295689</v>
       </c>
       <c r="K9">
-        <v>12.93648187317435</v>
+        <v>13.70667732509474</v>
       </c>
       <c r="L9">
-        <v>7.043909265775187</v>
+        <v>7.194384703758407</v>
       </c>
       <c r="M9">
-        <v>0.5991402370705877</v>
+        <v>0.3447310551293201</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2757,37 +2757,37 @@
         <v>38000</v>
       </c>
       <c r="C10">
-        <v>22621.0556451684</v>
+        <v>22655.24613435999</v>
       </c>
       <c r="D10">
-        <v>527.00008317038</v>
+        <v>532.0526929085569</v>
       </c>
       <c r="E10">
-        <v>1.666361414066952</v>
+        <v>1.666841198160479</v>
       </c>
       <c r="F10">
-        <v>37643.10441236258</v>
+        <v>37710.25349354964</v>
       </c>
       <c r="G10">
-        <v>-356.8955876374166</v>
+        <v>-289.7465064503558</v>
       </c>
       <c r="H10">
-        <v>356.8955876374166</v>
+        <v>289.7465064503558</v>
       </c>
       <c r="I10">
-        <v>2689843.679993443</v>
+        <v>2863479.158914285</v>
       </c>
       <c r="J10">
-        <v>1063.566848845993</v>
+        <v>1089.610708690023</v>
       </c>
       <c r="K10">
-        <v>0.9391989148353069</v>
+        <v>0.7624908064483048</v>
       </c>
       <c r="L10">
-        <v>6.280820471907703</v>
+        <v>6.390397966594644</v>
       </c>
       <c r="M10">
-        <v>0.3204454270087462</v>
+        <v>0.1149651788820193</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2798,37 +2798,37 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>23272.55814378137</v>
+        <v>23406.20741380926</v>
       </c>
       <c r="D11">
-        <v>539.4503247146388</v>
+        <v>553.9435515626287</v>
       </c>
       <c r="E11">
-        <v>0.472810872791687</v>
+        <v>0.4728204293861066</v>
       </c>
       <c r="F11">
-        <v>10834.52459421819</v>
+        <v>10860.72410219483</v>
       </c>
       <c r="G11">
-        <v>-1165.475405781814</v>
+        <v>-1139.275897805168</v>
       </c>
       <c r="H11">
-        <v>1165.475405781814</v>
+        <v>1139.275897805168</v>
       </c>
       <c r="I11">
-        <v>2541898.04015887</v>
+        <v>2689531.426959339</v>
       </c>
       <c r="J11">
-        <v>1074.890021838862</v>
+        <v>1095.12906303615</v>
       </c>
       <c r="K11">
-        <v>9.712295048181781</v>
+        <v>9.493965815043067</v>
       </c>
       <c r="L11">
-        <v>6.662095424827045</v>
+        <v>6.735238838644468</v>
       </c>
       <c r="M11">
-        <v>-0.7672043241598144</v>
+        <v>-0.9259261232257</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2839,37 +2839,37 @@
         <v>13000</v>
       </c>
       <c r="C12">
-        <v>23553.91194252168</v>
+        <v>23482.66857126982</v>
       </c>
       <c r="D12">
-        <v>513.6406721172063</v>
+        <v>506.1953121524218</v>
       </c>
       <c r="E12">
-        <v>0.6825357528387946</v>
+        <v>0.6825447032705417</v>
       </c>
       <c r="F12">
-        <v>16598.11347366984</v>
+        <v>16697.15635162129</v>
       </c>
       <c r="G12">
-        <v>3598.113473669837</v>
+        <v>3697.156351621292</v>
       </c>
       <c r="H12">
-        <v>3598.113473669837</v>
+        <v>3697.156351621292</v>
       </c>
       <c r="I12">
-        <v>3582350.293083425</v>
+        <v>3787474.793096771</v>
       </c>
       <c r="J12">
-        <v>1327.21236702196</v>
+        <v>1355.331791894664</v>
       </c>
       <c r="K12">
-        <v>27.67779595130644</v>
+        <v>28.43966424324071</v>
       </c>
       <c r="L12">
-        <v>8.763665477474984</v>
+        <v>8.905681379104092</v>
       </c>
       <c r="M12">
-        <v>2.089683060399734</v>
+        <v>1.979698078285003</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2880,37 +2880,37 @@
         <v>32000</v>
       </c>
       <c r="C13">
-        <v>24247.47872632319</v>
+        <v>24318.89748263998</v>
       </c>
       <c r="D13">
-        <v>531.6332832856365</v>
+        <v>539.1986720741952</v>
       </c>
       <c r="E13">
-        <v>1.172958607253419</v>
+        <v>1.172953877819879</v>
       </c>
       <c r="F13">
-        <v>27837.76476752626</v>
+        <v>27756.95373207162</v>
       </c>
       <c r="G13">
-        <v>-4162.235232473744</v>
+        <v>-4243.046267928377</v>
       </c>
       <c r="H13">
-        <v>4162.235232473744</v>
+        <v>4243.046267928377</v>
       </c>
       <c r="I13">
-        <v>4831609.551025456</v>
+        <v>5079835.414795331</v>
       </c>
       <c r="J13">
-        <v>1584.941718426667</v>
+        <v>1617.851289715911</v>
       </c>
       <c r="K13">
-        <v>13.00698510148045</v>
+        <v>13.25951958727618</v>
       </c>
       <c r="L13">
-        <v>9.149421806930027</v>
+        <v>9.301484852574282</v>
       </c>
       <c r="M13">
-        <v>-0.8762353942790587</v>
+        <v>-0.9641791764123474</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2921,37 +2921,37 @@
         <v>41000</v>
       </c>
       <c r="C14">
-        <v>24770.38172681426</v>
+        <v>24834.63567742981</v>
       </c>
       <c r="D14">
-        <v>530.7602550061796</v>
+        <v>536.8526243457586</v>
       </c>
       <c r="E14">
-        <v>1.665245531702599</v>
+        <v>1.665249091501127</v>
       </c>
       <c r="F14">
-        <v>41290.95612765514</v>
+        <v>41434.49877851217</v>
       </c>
       <c r="G14">
-        <v>290.9561276551394</v>
+        <v>434.4987785121702</v>
       </c>
       <c r="H14">
-        <v>290.9561276551394</v>
+        <v>434.4987785121702</v>
       </c>
       <c r="I14">
-        <v>4436030.044125007</v>
+        <v>4672248.2292731</v>
       </c>
       <c r="J14">
-        <v>1477.109585862373</v>
+        <v>1519.238580448932</v>
       </c>
       <c r="K14">
-        <v>0.7096490918418035</v>
+        <v>1.059753118322366</v>
       </c>
       <c r="L14">
-        <v>8.446107414006008</v>
+        <v>8.614673874719955</v>
       </c>
       <c r="M14">
-        <v>-0.7432257663258223</v>
+        <v>-0.7407656440841682</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2959,10 +2959,10 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.472810872791687</v>
+        <v>0.4728204293861066</v>
       </c>
       <c r="F15">
-        <v>11464.47157959073</v>
+        <v>11498.47154993854</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2970,10 +2970,10 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.6825357528387946</v>
+        <v>0.6825447032705417</v>
       </c>
       <c r="F16">
-        <v>16912.62987015518</v>
+        <v>16966.76186378998</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2981,10 +2981,10 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>1.172958607253419</v>
+        <v>1.172953877819879</v>
       </c>
       <c r="F17">
-        <v>29688.45654729951</v>
+        <v>29789.85545321617</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2992,10 +2992,10 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>1.665245531702599</v>
+        <v>1.665249091501127</v>
       </c>
       <c r="F18">
-        <v>43033.90545255088</v>
+        <v>43190.72223570578</v>
       </c>
     </row>
   </sheetData>

--- a/hw4/tahoe_salt/generated_spreadsheet.xlsx
+++ b/hw4/tahoe_salt/generated_spreadsheet.xlsx
@@ -1427,7 +1427,7 @@
         <v>8000</v>
       </c>
       <c r="C3">
-        <v>20674.7</v>
+        <v>21378.85</v>
       </c>
       <c r="D3">
         <v>22083</v>
@@ -1462,28 +1462,28 @@
         <v>13000</v>
       </c>
       <c r="C4">
-        <v>19907.23</v>
+        <v>20959.9075</v>
       </c>
       <c r="D4">
-        <v>20674.7</v>
+        <v>21378.85</v>
       </c>
       <c r="E4">
-        <v>7674.700000000001</v>
+        <v>8378.849999999999</v>
       </c>
       <c r="F4">
-        <v>7674.700000000001</v>
+        <v>8378.849999999999</v>
       </c>
       <c r="G4">
-        <v>128615954.545</v>
+        <v>134268008.16125</v>
       </c>
       <c r="H4">
-        <v>10878.85</v>
+        <v>11230.925</v>
       </c>
       <c r="I4">
-        <v>59.03615384615385</v>
+        <v>64.45269230769229</v>
       </c>
       <c r="J4">
-        <v>117.5368269230769</v>
+        <v>120.2450961538461</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1497,31 +1497,31 @@
         <v>23000</v>
       </c>
       <c r="C5">
-        <v>20216.507</v>
+        <v>21061.912125</v>
       </c>
       <c r="D5">
-        <v>19907.23</v>
+        <v>20959.9075</v>
       </c>
       <c r="E5">
-        <v>-3092.77</v>
+        <v>-2040.092500000002</v>
       </c>
       <c r="F5">
-        <v>3092.77</v>
+        <v>2040.092500000002</v>
       </c>
       <c r="G5">
-        <v>88932378.4543</v>
+        <v>90899331.24368542</v>
       </c>
       <c r="H5">
-        <v>8283.49</v>
+        <v>8167.314166666667</v>
       </c>
       <c r="I5">
-        <v>13.44682608695652</v>
+        <v>8.869967391304359</v>
       </c>
       <c r="J5">
-        <v>82.84015997770345</v>
+        <v>83.12005323299887</v>
       </c>
       <c r="K5">
-        <v>2.253268851655522</v>
+        <v>2.500425119355332</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1532,31 +1532,31 @@
         <v>34000</v>
       </c>
       <c r="C6">
-        <v>21594.8563</v>
+        <v>21708.81651874999</v>
       </c>
       <c r="D6">
-        <v>20216.507</v>
+        <v>21061.912125</v>
       </c>
       <c r="E6">
-        <v>-13783.493</v>
+        <v>-12938.087875</v>
       </c>
       <c r="F6">
-        <v>13783.493</v>
+        <v>12938.087875</v>
       </c>
       <c r="G6">
-        <v>114195453.6609872</v>
+        <v>110023027.8980696</v>
       </c>
       <c r="H6">
-        <v>9658.490750000001</v>
+        <v>9360.007593750001</v>
       </c>
       <c r="I6">
-        <v>40.53968529411765</v>
+        <v>38.05319963235296</v>
       </c>
       <c r="J6">
-        <v>72.26504130680701</v>
+        <v>71.85333983283739</v>
       </c>
       <c r="K6">
-        <v>0.5054037039896737</v>
+        <v>0.7995367044356989</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1567,31 +1567,31 @@
         <v>10000</v>
       </c>
       <c r="C7">
-        <v>20435.37067</v>
+        <v>21123.37569281249</v>
       </c>
       <c r="D7">
-        <v>21594.8563</v>
+        <v>21708.81651874999</v>
       </c>
       <c r="E7">
-        <v>11594.8563</v>
+        <v>11708.81651874999</v>
       </c>
       <c r="F7">
-        <v>11594.8563</v>
+        <v>11708.81651874999</v>
       </c>
       <c r="G7">
-        <v>118244501.4523197</v>
+        <v>115437699.1724062</v>
       </c>
       <c r="H7">
-        <v>10045.76386</v>
+        <v>9829.769378749999</v>
       </c>
       <c r="I7">
-        <v>115.948563</v>
+        <v>117.0881651874999</v>
       </c>
       <c r="J7">
-        <v>81.00174564544561</v>
+        <v>80.90030490376991</v>
       </c>
       <c r="K7">
-        <v>1.640123491813793</v>
+        <v>1.952485903203417</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1602,31 +1602,31 @@
         <v>18000</v>
       </c>
       <c r="C8">
-        <v>20191.833603</v>
+        <v>20967.20690817187</v>
       </c>
       <c r="D8">
-        <v>20435.37067</v>
+        <v>21123.37569281249</v>
       </c>
       <c r="E8">
-        <v>2435.370670000004</v>
+        <v>3123.375692812493</v>
       </c>
       <c r="F8">
-        <v>2435.370670000004</v>
+        <v>3123.375692812493</v>
       </c>
       <c r="G8">
-        <v>99525589.59364916</v>
+        <v>97823995.26341386</v>
       </c>
       <c r="H8">
-        <v>8777.364995000002</v>
+        <v>8712.037097760416</v>
       </c>
       <c r="I8">
-        <v>13.52983705555558</v>
+        <v>17.35208718229163</v>
       </c>
       <c r="J8">
-        <v>69.7564275471306</v>
+        <v>70.30893528352352</v>
       </c>
       <c r="K8">
-        <v>2.154594685395102</v>
+        <v>2.561497567807553</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1637,31 +1637,31 @@
         <v>23000</v>
       </c>
       <c r="C9">
-        <v>20472.6502427</v>
+        <v>21068.84656276328</v>
       </c>
       <c r="D9">
-        <v>20191.833603</v>
+        <v>20967.20690817187</v>
       </c>
       <c r="E9">
-        <v>-2808.166396999997</v>
+        <v>-2032.793091828131</v>
       </c>
       <c r="F9">
-        <v>2808.166396999997</v>
+        <v>2032.793091828131</v>
       </c>
       <c r="G9">
-        <v>86434190.86787643</v>
+        <v>84439459.90495248</v>
       </c>
       <c r="H9">
-        <v>7924.622338142857</v>
+        <v>7757.859382627233</v>
       </c>
       <c r="I9">
-        <v>12.20941911739129</v>
+        <v>8.838230834035352</v>
       </c>
       <c r="J9">
-        <v>61.53542634288213</v>
+        <v>61.52740607645379</v>
       </c>
       <c r="K9">
-        <v>2.032083913386071</v>
+        <v>2.614518740846963</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1672,31 +1672,31 @@
         <v>38000</v>
       </c>
       <c r="C10">
-        <v>22225.38521843</v>
+        <v>21915.40423462511</v>
       </c>
       <c r="D10">
-        <v>20472.6502427</v>
+        <v>21068.84656276328</v>
       </c>
       <c r="E10">
-        <v>-17527.3497573</v>
+        <v>-16931.15343723672</v>
       </c>
       <c r="F10">
-        <v>17527.3497573</v>
+        <v>16931.15343723672</v>
       </c>
       <c r="G10">
-        <v>114030915.6987324</v>
+        <v>109717522.00624</v>
       </c>
       <c r="H10">
-        <v>9124.963265537501</v>
+        <v>8904.521139453418</v>
       </c>
       <c r="I10">
-        <v>46.12460462447368</v>
+        <v>44.55566694009664</v>
       </c>
       <c r="J10">
-        <v>59.60907362808108</v>
+        <v>59.40593868440914</v>
       </c>
       <c r="K10">
-        <v>-0.1560392237059725</v>
+        <v>0.3764284743675024</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1707,31 +1707,31 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>21202.846696587</v>
+        <v>21419.63402289385</v>
       </c>
       <c r="D11">
-        <v>22225.38521843</v>
+        <v>21915.40423462511</v>
       </c>
       <c r="E11">
-        <v>10225.38521843</v>
+        <v>9915.404234625112</v>
       </c>
       <c r="F11">
-        <v>10225.38521843</v>
+        <v>9915.404234625112</v>
       </c>
       <c r="G11">
-        <v>112978425.3839051</v>
+        <v>108450601.9095491</v>
       </c>
       <c r="H11">
-        <v>9247.232371414446</v>
+        <v>9016.841483361384</v>
       </c>
       <c r="I11">
-        <v>85.21154348691667</v>
+        <v>82.62836862187594</v>
       </c>
       <c r="J11">
-        <v>62.45379250128503</v>
+        <v>61.98620867746101</v>
       </c>
       <c r="K11">
-        <v>0.9518018668307501</v>
+        <v>1.471393233052248</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1742,31 +1742,31 @@
         <v>13000</v>
       </c>
       <c r="C12">
-        <v>20382.5620269283</v>
+        <v>20998.65232174916</v>
       </c>
       <c r="D12">
-        <v>21202.846696587</v>
+        <v>21419.63402289385</v>
       </c>
       <c r="E12">
-        <v>8202.846696587003</v>
+        <v>8419.634022893853</v>
       </c>
       <c r="F12">
-        <v>8202.846696587003</v>
+        <v>8419.634022893853</v>
       </c>
       <c r="G12">
-        <v>108409252.2382855</v>
+        <v>104694565.4265413</v>
       </c>
       <c r="H12">
-        <v>9142.793803931701</v>
+        <v>8957.12073731463</v>
       </c>
       <c r="I12">
-        <v>63.09882074297695</v>
+        <v>64.76641556072195</v>
       </c>
       <c r="J12">
-        <v>62.51829532545422</v>
+        <v>62.2642293657871</v>
       </c>
       <c r="K12">
-        <v>1.859866917637864</v>
+        <v>2.4211969673101</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1777,31 +1777,31 @@
         <v>32000</v>
       </c>
       <c r="C13">
-        <v>21544.30582423547</v>
+        <v>21548.7197056617</v>
       </c>
       <c r="D13">
-        <v>20382.5620269283</v>
+        <v>20998.65232174916</v>
       </c>
       <c r="E13">
-        <v>-11617.4379730717</v>
+        <v>-11001.34767825084</v>
       </c>
       <c r="F13">
-        <v>11617.4379730717</v>
+        <v>11001.34767825084</v>
       </c>
       <c r="G13">
-        <v>110823398.8582748</v>
+        <v>106179573.1821062</v>
       </c>
       <c r="H13">
-        <v>9367.7614556717</v>
+        <v>9142.959550127012</v>
       </c>
       <c r="I13">
-        <v>36.30449366584905</v>
+        <v>34.37921149453388</v>
       </c>
       <c r="J13">
-        <v>60.13522244730829</v>
+        <v>59.72922774112772</v>
       </c>
       <c r="K13">
-        <v>0.575051124341323</v>
+        <v>1.168725053215105</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1812,51 +1812,51 @@
         <v>41000</v>
       </c>
       <c r="C14">
-        <v>23489.87524181193</v>
+        <v>22521.28372037861</v>
       </c>
       <c r="D14">
-        <v>21544.30582423547</v>
+        <v>21548.7197056617</v>
       </c>
       <c r="E14">
-        <v>-19455.69417576453</v>
+        <v>-19451.2802943383</v>
       </c>
       <c r="F14">
-        <v>19455.69417576453</v>
+        <v>19451.2802943383</v>
       </c>
       <c r="G14">
-        <v>133131785.2751584</v>
+        <v>128860634.1743402</v>
       </c>
       <c r="H14">
-        <v>10208.42251567944</v>
+        <v>10001.98627881129</v>
       </c>
       <c r="I14">
-        <v>47.45291262381592</v>
+        <v>47.44214705936171</v>
       </c>
       <c r="J14">
-        <v>59.07836329535059</v>
+        <v>58.70530435098055</v>
       </c>
       <c r="K14">
-        <v>-1.378151462335201</v>
+        <v>-0.8763933646002094</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="D15">
-        <v>23489.87524181193</v>
+        <v>22521.28372037861</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="D16">
-        <v>23489.87524181193</v>
+        <v>22521.28372037861</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17">
-        <v>23489.87524181193</v>
+        <v>22521.28372037861</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18">
-        <v>23489.87524181193</v>
+        <v>22521.28372037861</v>
       </c>
     </row>
   </sheetData>
@@ -1929,10 +1929,10 @@
         <v>8000</v>
       </c>
       <c r="C3">
-        <v>13007.6</v>
+        <v>13285.8</v>
       </c>
       <c r="D3">
-        <v>1493.36</v>
+        <v>1521.18</v>
       </c>
       <c r="E3">
         <v>13564</v>
@@ -1967,31 +1967,31 @@
         <v>13000</v>
       </c>
       <c r="C4">
-        <v>14350.864</v>
+        <v>14716.631</v>
       </c>
       <c r="D4">
-        <v>1478.3504</v>
+        <v>1512.1451</v>
       </c>
       <c r="E4">
-        <v>14500.96</v>
+        <v>14806.98</v>
       </c>
       <c r="F4">
-        <v>1500.960000000001</v>
+        <v>1806.98</v>
       </c>
       <c r="G4">
-        <v>1500.960000000001</v>
+        <v>1806.98</v>
       </c>
       <c r="H4">
-        <v>16605488.4608</v>
+        <v>17111636.3602</v>
       </c>
       <c r="I4">
-        <v>3532.48</v>
+        <v>3685.49</v>
       </c>
       <c r="J4">
-        <v>11.54584615384616</v>
+        <v>13.89984615384615</v>
       </c>
       <c r="K4">
-        <v>40.54792307692308</v>
+        <v>41.72492307692308</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -2005,34 +2005,34 @@
         <v>23000</v>
       </c>
       <c r="C5">
-        <v>16546.29296</v>
+        <v>16567.337295</v>
       </c>
       <c r="D5">
-        <v>1550.058256</v>
+        <v>1546.0012195</v>
       </c>
       <c r="E5">
-        <v>15829.2144</v>
+        <v>16228.7761</v>
       </c>
       <c r="F5">
-        <v>-7170.785599999999</v>
+        <v>-6771.223900000001</v>
       </c>
       <c r="G5">
-        <v>7170.785599999999</v>
+        <v>6771.223900000001</v>
       </c>
       <c r="H5">
-        <v>28210381.01425578</v>
+        <v>26690915.27477707</v>
       </c>
       <c r="I5">
-        <v>4745.248533333333</v>
+        <v>4714.067966666667</v>
       </c>
       <c r="J5">
-        <v>31.17732869565217</v>
+        <v>29.44010391304348</v>
       </c>
       <c r="K5">
-        <v>37.42439161649944</v>
+        <v>37.62998335562988</v>
       </c>
       <c r="L5">
-        <v>-0.02230138195220311</v>
+        <v>0.1272268673767316</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2043,34 +2043,34 @@
         <v>34000</v>
       </c>
       <c r="C6">
-        <v>19686.7160944</v>
+        <v>18907.671588775</v>
       </c>
       <c r="D6">
-        <v>1709.09474384</v>
+        <v>1625.4345269275</v>
       </c>
       <c r="E6">
-        <v>18096.351216</v>
+        <v>18113.3385145</v>
       </c>
       <c r="F6">
-        <v>-15903.648784</v>
+        <v>-15886.6614855</v>
       </c>
       <c r="G6">
-        <v>15903.648784</v>
+        <v>15886.6614855</v>
       </c>
       <c r="H6">
-        <v>84389296.92189801</v>
+        <v>83114689.74480008</v>
       </c>
       <c r="I6">
-        <v>7534.848596</v>
+        <v>7507.216346375</v>
       </c>
       <c r="J6">
-        <v>46.7754376</v>
+        <v>46.72547495735294</v>
       </c>
       <c r="K6">
-        <v>39.76215311237458</v>
+        <v>39.90385625606065</v>
       </c>
       <c r="L6">
-        <v>-2.124724097641311</v>
+        <v>-2.036294770282139</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2081,34 +2081,34 @@
         <v>10000</v>
       </c>
       <c r="C7">
-        <v>20256.229754416</v>
+        <v>20006.45080991737</v>
       </c>
       <c r="D7">
-        <v>1595.1366354576</v>
+        <v>1572.768996348987</v>
       </c>
       <c r="E7">
-        <v>21395.81083824</v>
+        <v>20533.1061157025</v>
       </c>
       <c r="F7">
-        <v>11395.81083824</v>
+        <v>10533.1061157025</v>
       </c>
       <c r="G7">
-        <v>11395.81083824</v>
+        <v>10533.1061157025</v>
       </c>
       <c r="H7">
-        <v>93484338.46970806</v>
+        <v>88681016.68476994</v>
       </c>
       <c r="I7">
-        <v>8307.041044447999</v>
+        <v>8112.394300240499</v>
       </c>
       <c r="J7">
-        <v>113.9581083824</v>
+        <v>105.331061157025</v>
       </c>
       <c r="K7">
-        <v>54.60134416637966</v>
+        <v>52.98929723625351</v>
       </c>
       <c r="L7">
-        <v>-0.5553919284946277</v>
+        <v>-0.585992136705753</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2119,34 +2119,34 @@
         <v>18000</v>
       </c>
       <c r="C8">
-        <v>21466.22975088624</v>
+        <v>21400.25881595304</v>
       </c>
       <c r="D8">
-        <v>1556.622971558864</v>
+        <v>1554.872897317655</v>
       </c>
       <c r="E8">
-        <v>21851.3663898736</v>
+        <v>21579.21980626636</v>
       </c>
       <c r="F8">
-        <v>3851.366389873598</v>
+        <v>3579.219806266359</v>
       </c>
       <c r="G8">
-        <v>3851.366389873598</v>
+        <v>3579.219806266359</v>
       </c>
       <c r="H8">
-        <v>80375785.90293138</v>
+        <v>76035982.97423652</v>
       </c>
       <c r="I8">
-        <v>7564.428602018932</v>
+        <v>7356.865217911476</v>
       </c>
       <c r="J8">
-        <v>21.39647994374221</v>
+        <v>19.88455447925755</v>
       </c>
       <c r="K8">
-        <v>49.06720012927341</v>
+        <v>47.47184011008752</v>
       </c>
       <c r="L8">
-        <v>-0.100773924375854</v>
+        <v>-0.1596576026255639</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2157,34 +2157,34 @@
         <v>23000</v>
       </c>
       <c r="C9">
-        <v>23020.56745020059</v>
+        <v>22957.37512760716</v>
       </c>
       <c r="D9">
-        <v>1556.394444334413</v>
+        <v>1555.097238751302</v>
       </c>
       <c r="E9">
-        <v>23022.8527224451</v>
+        <v>22955.13171327069</v>
       </c>
       <c r="F9">
-        <v>22.8527224451027</v>
+        <v>-44.86828672930642</v>
       </c>
       <c r="G9">
-        <v>22.8527224451027</v>
+        <v>44.86828672930642</v>
       </c>
       <c r="H9">
-        <v>68893605.38064449</v>
+        <v>65173987.28693902</v>
       </c>
       <c r="I9">
-        <v>6487.060619222671</v>
+        <v>6312.294227742595</v>
       </c>
       <c r="J9">
-        <v>0.09935966280479436</v>
+        <v>0.1950795075187235</v>
       </c>
       <c r="K9">
-        <v>42.07179434834932</v>
+        <v>40.7180171668634</v>
       </c>
       <c r="L9">
-        <v>-0.1139875942040921</v>
+        <v>-0.1931861390270695</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2195,34 +2195,34 @@
         <v>38000</v>
       </c>
       <c r="C10">
-        <v>25919.2657050815</v>
+        <v>25186.84874804053</v>
       </c>
       <c r="D10">
-        <v>1690.624825389063</v>
+        <v>1622.534876919509</v>
       </c>
       <c r="E10">
-        <v>24576.961894535</v>
+        <v>24512.47236635846</v>
       </c>
       <c r="F10">
-        <v>-13423.038105465</v>
+        <v>-13487.52763364154</v>
       </c>
       <c r="G10">
-        <v>13423.038105465</v>
+        <v>13487.52763364154</v>
       </c>
       <c r="H10">
-        <v>82804148.70565958</v>
+        <v>79766414.08460215</v>
       </c>
       <c r="I10">
-        <v>7354.057805002962</v>
+        <v>7209.198403479963</v>
       </c>
       <c r="J10">
-        <v>35.32378448806578</v>
+        <v>35.4934937727409</v>
       </c>
       <c r="K10">
-        <v>41.22829311581388</v>
+        <v>40.06495174259809</v>
       </c>
       <c r="L10">
-        <v>-1.925805169667223</v>
+        <v>-2.040029218338999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2233,34 +2233,34 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>26048.90147742351</v>
+        <v>26068.91444371204</v>
       </c>
       <c r="D11">
-        <v>1534.525920084357</v>
+        <v>1548.487958794709</v>
       </c>
       <c r="E11">
-        <v>27609.89053047057</v>
+        <v>26809.38362496004</v>
       </c>
       <c r="F11">
-        <v>15609.89053047057</v>
+        <v>14809.38362496004</v>
       </c>
       <c r="G11">
-        <v>15609.89053047057</v>
+        <v>14809.38362496004</v>
       </c>
       <c r="H11">
-        <v>100677985.779839</v>
+        <v>95272128.44756132</v>
       </c>
       <c r="I11">
-        <v>8271.37255227714</v>
+        <v>8053.66342808886</v>
       </c>
       <c r="J11">
-        <v>130.0824210872547</v>
+        <v>123.4115302080004</v>
       </c>
       <c r="K11">
-        <v>51.10097400152953</v>
+        <v>49.32568268319834</v>
       </c>
       <c r="L11">
-        <v>0.1749900614941826</v>
+        <v>0.01271573389830046</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2271,34 +2271,34 @@
         <v>13000</v>
       </c>
       <c r="C12">
-        <v>26125.08465775708</v>
+        <v>26886.53228238141</v>
       </c>
       <c r="D12">
-        <v>1388.691646109279</v>
+        <v>1475.400946782175</v>
       </c>
       <c r="E12">
-        <v>27583.42739750787</v>
+        <v>27617.40240250675</v>
       </c>
       <c r="F12">
-        <v>14583.42739750787</v>
+        <v>14617.40240250675</v>
       </c>
       <c r="G12">
-        <v>14583.42739750787</v>
+        <v>14617.40240250675</v>
       </c>
       <c r="H12">
-        <v>111877822.6676935</v>
+        <v>107111760.9024862</v>
       </c>
       <c r="I12">
-        <v>8902.578036800212</v>
+        <v>8710.037325530649</v>
       </c>
       <c r="J12">
-        <v>112.1802107500605</v>
+        <v>112.4415569423596</v>
       </c>
       <c r="K12">
-        <v>57.20889767638263</v>
+        <v>55.63727010911447</v>
       </c>
       <c r="L12">
-        <v>1.800695857178241</v>
+        <v>1.689982498745264</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2309,34 +2309,34 @@
         <v>32000</v>
       </c>
       <c r="C13">
-        <v>27962.39867347972</v>
+        <v>28543.8365677054</v>
       </c>
       <c r="D13">
-        <v>1433.553883070615</v>
+        <v>1493.591280636357</v>
       </c>
       <c r="E13">
-        <v>27513.77630386636</v>
+        <v>28361.93322916358</v>
       </c>
       <c r="F13">
-        <v>-4486.223696133642</v>
+        <v>-3638.066770836416</v>
       </c>
       <c r="G13">
-        <v>4486.223696133642</v>
+        <v>3638.066770836416</v>
       </c>
       <c r="H13">
-        <v>103536766.3389714</v>
+        <v>98577558.07762963</v>
       </c>
       <c r="I13">
-        <v>8501.091278557798</v>
+        <v>8248.949093285719</v>
       </c>
       <c r="J13">
-        <v>14.01944905041763</v>
+        <v>11.3689586588638</v>
       </c>
       <c r="K13">
-        <v>53.28258416493127</v>
+        <v>51.61287815909168</v>
       </c>
       <c r="L13">
-        <v>1.358015261176801</v>
+        <v>1.343412809002353</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2347,54 +2347,54 @@
         <v>41000</v>
       </c>
       <c r="C14">
-        <v>30556.3573008953</v>
+        <v>30585.55645592467</v>
       </c>
       <c r="D14">
-        <v>1549.594357505111</v>
+        <v>1548.404141394648</v>
       </c>
       <c r="E14">
-        <v>29395.95255655034</v>
+        <v>30037.42784834176</v>
       </c>
       <c r="F14">
-        <v>-11604.04744344966</v>
+        <v>-10962.57215165824</v>
       </c>
       <c r="G14">
-        <v>11604.04744344966</v>
+        <v>10962.57215165824</v>
       </c>
       <c r="H14">
-        <v>106129862.2332097</v>
+        <v>100377593.9195199</v>
       </c>
       <c r="I14">
-        <v>8759.670958965455</v>
+        <v>8475.084348150096</v>
       </c>
       <c r="J14">
-        <v>28.30255474012113</v>
+        <v>26.73798085770303</v>
       </c>
       <c r="K14">
-        <v>51.20091504619708</v>
+        <v>49.53997005064263</v>
       </c>
       <c r="L14">
-        <v>-0.006785157888874293</v>
+        <v>0.01406142006081095</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="E15">
-        <v>30945.54691405545</v>
+        <v>31585.83198973641</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="E16">
-        <v>34044.73562906568</v>
+        <v>34682.6402725257</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17">
-        <v>38693.51870158101</v>
+        <v>39327.85269670964</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18">
-        <v>44891.89613160145</v>
+        <v>45521.46926228824</v>
       </c>
     </row>
   </sheetData>
@@ -2470,13 +2470,13 @@
         <v>8000</v>
       </c>
       <c r="C3">
-        <v>18782.60227480593</v>
+        <v>18862.6890944689</v>
       </c>
       <c r="D3">
-        <v>505.7899893853545</v>
+        <v>518.8040975805879</v>
       </c>
       <c r="E3">
-        <v>0.4671052118983504</v>
+        <v>0.4693025225085997</v>
       </c>
       <c r="F3">
         <v>8944.385122803003</v>
@@ -2511,34 +2511,34 @@
         <v>13000</v>
       </c>
       <c r="C4">
-        <v>19264.45394236736</v>
+        <v>19363.53907797662</v>
       </c>
       <c r="D4">
-        <v>503.3961572029625</v>
+        <v>517.9063918769446</v>
       </c>
       <c r="E4">
-        <v>0.6825457909576081</v>
+        <v>0.6828024579833054</v>
       </c>
       <c r="F4">
-        <v>13181.77283694694</v>
+        <v>13245.39842404235</v>
       </c>
       <c r="G4">
-        <v>181.7728369469369</v>
+        <v>245.3984240423542</v>
       </c>
       <c r="H4">
-        <v>181.7728369469369</v>
+        <v>245.3984240423542</v>
       </c>
       <c r="I4">
-        <v>462452.3122116908</v>
+        <v>476041.8233470575</v>
       </c>
       <c r="J4">
-        <v>563.0789798749702</v>
+        <v>594.8917734226789</v>
       </c>
       <c r="K4">
-        <v>1.398252591899515</v>
+        <v>1.887680184941187</v>
       </c>
       <c r="L4">
-        <v>6.601533313468529</v>
+        <v>6.846247109989365</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -2552,34 +2552,34 @@
         <v>23000</v>
       </c>
       <c r="C5">
-        <v>19756.90420631653</v>
+        <v>19869.68464953174</v>
       </c>
       <c r="D5">
-        <v>502.3015678775828</v>
+        <v>517.3183508608533</v>
       </c>
       <c r="E5">
-        <v>1.1700523127902</v>
+        <v>1.1700498330447</v>
       </c>
       <c r="F5">
-        <v>23142.38273525652</v>
+        <v>23275.36975826643</v>
       </c>
       <c r="G5">
-        <v>142.3827352565168</v>
+        <v>275.3697582664281</v>
       </c>
       <c r="H5">
-        <v>142.3827352565168</v>
+        <v>275.3697582664281</v>
       </c>
       <c r="I5">
-        <v>315059.155907503</v>
+        <v>342637.3834872753</v>
       </c>
       <c r="J5">
-        <v>422.8468983354857</v>
+        <v>488.3844350372619</v>
       </c>
       <c r="K5">
-        <v>0.6190553706805076</v>
+        <v>1.197259818549687</v>
       </c>
       <c r="L5">
-        <v>4.607373999205856</v>
+        <v>4.963251346176139</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -2593,37 +2593,37 @@
         <v>34000</v>
       </c>
       <c r="C6">
-        <v>20274.35573043596</v>
+        <v>20389.02978143925</v>
       </c>
       <c r="D6">
-        <v>503.8165635017684</v>
+        <v>517.4196899131863</v>
       </c>
       <c r="E6">
-        <v>1.66567736476266</v>
+        <v>1.664576992213668</v>
       </c>
       <c r="F6">
-        <v>33719.82347415544</v>
+        <v>33932.53170941058</v>
       </c>
       <c r="G6">
-        <v>-280.1765258445594</v>
+        <v>-67.46829058942239</v>
       </c>
       <c r="H6">
-        <v>280.1765258445594</v>
+        <v>67.46829058942239</v>
       </c>
       <c r="I6">
-        <v>255919.088339209</v>
+        <v>258116.0301742212</v>
       </c>
       <c r="J6">
-        <v>387.1793052127541</v>
+        <v>383.1553989253021</v>
       </c>
       <c r="K6">
-        <v>0.8240486054251746</v>
+        <v>0.1984361487924188</v>
       </c>
       <c r="L6">
-        <v>3.661542650760685</v>
+        <v>3.772047546830209</v>
       </c>
       <c r="M6">
-        <v>2.552729848561492</v>
+        <v>3.647828057343513</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2634,37 +2634,37 @@
         <v>10000</v>
       </c>
       <c r="C7">
-        <v>20834.89756230393</v>
+        <v>20926.53784903554</v>
       </c>
       <c r="D7">
-        <v>509.4890903383878</v>
+        <v>518.4241087973414</v>
       </c>
       <c r="E7">
-        <v>0.4683910869955446</v>
+        <v>0.4697305030024782</v>
       </c>
       <c r="F7">
-        <v>9705.592572220217</v>
+        <v>9811.449473604282</v>
       </c>
       <c r="G7">
-        <v>-294.4074277797827</v>
+        <v>-188.5505263957184</v>
       </c>
       <c r="H7">
-        <v>294.4074277797827</v>
+        <v>188.5505263957184</v>
       </c>
       <c r="I7">
-        <v>222070.4173777488</v>
+        <v>213603.0843401974</v>
       </c>
       <c r="J7">
-        <v>368.6249297261598</v>
+        <v>344.2344244193853</v>
       </c>
       <c r="K7">
-        <v>2.944074277797827</v>
+        <v>1.885505263957184</v>
       </c>
       <c r="L7">
-        <v>3.518048976168114</v>
+        <v>3.394739090255604</v>
       </c>
       <c r="M7">
-        <v>1.882555099834496</v>
+        <v>3.512532165154815</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2675,37 +2675,37 @@
         <v>18000</v>
       </c>
       <c r="C8">
-        <v>21796.85898455247</v>
+        <v>21690.81104819419</v>
       </c>
       <c r="D8">
-        <v>554.7363235294036</v>
+        <v>530.7165633154067</v>
       </c>
       <c r="E8">
-        <v>0.6968719177000449</v>
+        <v>0.6901545595104336</v>
       </c>
       <c r="F8">
-        <v>14568.52127033276</v>
+        <v>14642.67273616677</v>
       </c>
       <c r="G8">
-        <v>-3431.478729667237</v>
+        <v>-3357.327263833227</v>
       </c>
       <c r="H8">
-        <v>3431.478729667237</v>
+        <v>3357.327263833227</v>
       </c>
       <c r="I8">
-        <v>2147566.393174569</v>
+        <v>2056610.296363149</v>
       </c>
       <c r="J8">
-        <v>879.1005630496726</v>
+        <v>846.4165643216924</v>
       </c>
       <c r="K8">
-        <v>19.06377072037354</v>
+        <v>18.65181813240682</v>
       </c>
       <c r="L8">
-        <v>6.109002600202351</v>
+        <v>5.937585597280807</v>
       </c>
       <c r="M8">
-        <v>-3.114003224828376</v>
+        <v>-2.537985273750068</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2716,37 +2716,37 @@
         <v>23000</v>
       </c>
       <c r="C9">
-        <v>22109.10339765365</v>
+        <v>22093.31535135151</v>
       </c>
       <c r="D9">
-        <v>530.4871324865809</v>
+        <v>524.3059503075025</v>
       </c>
       <c r="E9">
-        <v>1.157076628012107</v>
+        <v>1.163599284784006</v>
       </c>
       <c r="F9">
-        <v>26152.53578477179</v>
+        <v>26000.294671845</v>
       </c>
       <c r="G9">
-        <v>3152.53578477179</v>
+        <v>3000.294671844997</v>
       </c>
       <c r="H9">
-        <v>3152.53578477179</v>
+        <v>3000.294671844997</v>
       </c>
       <c r="I9">
-        <v>3260554.319044871</v>
+        <v>3048775.699440052</v>
       </c>
       <c r="J9">
-        <v>1203.877023295689</v>
+        <v>1154.113436825022</v>
       </c>
       <c r="K9">
-        <v>13.70667732509474</v>
+        <v>13.04475944280433</v>
       </c>
       <c r="L9">
-        <v>7.194384703758407</v>
+        <v>6.952896146641311</v>
       </c>
       <c r="M9">
-        <v>0.3447310551293201</v>
+        <v>0.7383172822964056</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2757,37 +2757,37 @@
         <v>38000</v>
       </c>
       <c r="C10">
-        <v>22655.24613435999</v>
+        <v>22628.17136826151</v>
       </c>
       <c r="D10">
-        <v>532.0526929085569</v>
+        <v>524.833453637627</v>
       </c>
       <c r="E10">
-        <v>1.666841198160479</v>
+        <v>1.665314273541207</v>
       </c>
       <c r="F10">
-        <v>37710.25349354964</v>
+        <v>37648.77203734334</v>
       </c>
       <c r="G10">
-        <v>-289.7465064503558</v>
+        <v>-351.2279626566597</v>
       </c>
       <c r="H10">
-        <v>289.7465064503558</v>
+        <v>351.2279626566597</v>
       </c>
       <c r="I10">
-        <v>2863479.158914285</v>
+        <v>2683098.872229039</v>
       </c>
       <c r="J10">
-        <v>1089.610708690023</v>
+        <v>1053.752752553976</v>
       </c>
       <c r="K10">
-        <v>0.7624908064483048</v>
+        <v>0.9242841122543675</v>
       </c>
       <c r="L10">
-        <v>6.390397966594644</v>
+        <v>6.199319642342942</v>
       </c>
       <c r="M10">
-        <v>0.1149651788820193</v>
+        <v>0.4753239621607522</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2798,37 +2798,37 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>23406.20741380926</v>
+        <v>23272.68274272862</v>
       </c>
       <c r="D11">
-        <v>553.9435515626287</v>
+        <v>530.8173496791014</v>
       </c>
       <c r="E11">
-        <v>0.4728204293861066</v>
+        <v>0.4720252771822506</v>
       </c>
       <c r="F11">
-        <v>10860.72410219483</v>
+        <v>10875.67260100948</v>
       </c>
       <c r="G11">
-        <v>-1139.275897805168</v>
+        <v>-1124.327398990517</v>
       </c>
       <c r="H11">
-        <v>1139.275897805168</v>
+        <v>1124.327398990517</v>
       </c>
       <c r="I11">
-        <v>2689531.426959339</v>
+        <v>2525433.675328122</v>
       </c>
       <c r="J11">
-        <v>1095.12906303615</v>
+        <v>1061.594379935814</v>
       </c>
       <c r="K11">
-        <v>9.493965815043067</v>
+        <v>9.369394991587644</v>
       </c>
       <c r="L11">
-        <v>6.735238838644468</v>
+        <v>6.551550236703465</v>
       </c>
       <c r="M11">
-        <v>-0.9259261232257</v>
+        <v>-0.5872802996060112</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2839,37 +2839,37 @@
         <v>13000</v>
       </c>
       <c r="C12">
-        <v>23482.66857126982</v>
+        <v>23555.14310672658</v>
       </c>
       <c r="D12">
-        <v>506.1953121524218</v>
+        <v>518.399500395044</v>
       </c>
       <c r="E12">
-        <v>0.6825447032705417</v>
+        <v>0.6832416543324172</v>
       </c>
       <c r="F12">
-        <v>16697.15635162129</v>
+        <v>16428.09412108222</v>
       </c>
       <c r="G12">
-        <v>3697.156351621292</v>
+        <v>3428.09412108222</v>
       </c>
       <c r="H12">
-        <v>3697.156351621292</v>
+        <v>3428.09412108222</v>
       </c>
       <c r="I12">
-        <v>3787474.793096771</v>
+        <v>3448073.238095158</v>
       </c>
       <c r="J12">
-        <v>1355.331791894664</v>
+        <v>1298.244354050455</v>
       </c>
       <c r="K12">
-        <v>28.43966424324071</v>
+        <v>26.36995477755554</v>
       </c>
       <c r="L12">
-        <v>8.905681379104092</v>
+        <v>8.533390690788671</v>
       </c>
       <c r="M12">
-        <v>1.979698078285003</v>
+        <v>2.160333412445142</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2880,37 +2880,37 @@
         <v>32000</v>
       </c>
       <c r="C13">
-        <v>24318.89748263998</v>
+        <v>24244.90929203997</v>
       </c>
       <c r="D13">
-        <v>539.1986720741952</v>
+        <v>526.9678346409615</v>
       </c>
       <c r="E13">
-        <v>1.172953877819879</v>
+        <v>1.17141255569068</v>
       </c>
       <c r="F13">
-        <v>27756.95373207162</v>
+        <v>28011.956959864</v>
       </c>
       <c r="G13">
-        <v>-4243.046267928377</v>
+        <v>-3988.043040135999</v>
       </c>
       <c r="H13">
-        <v>4243.046267928377</v>
+        <v>3988.043040135999</v>
       </c>
       <c r="I13">
-        <v>5079835.414795331</v>
+        <v>4580474.515538978</v>
       </c>
       <c r="J13">
-        <v>1617.851289715911</v>
+        <v>1542.771507330959</v>
       </c>
       <c r="K13">
-        <v>13.25951958727618</v>
+        <v>12.462634500425</v>
       </c>
       <c r="L13">
-        <v>9.301484852574282</v>
+        <v>8.890594673482882</v>
       </c>
       <c r="M13">
-        <v>-0.9641791764123474</v>
+        <v>-0.7670626395025036</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2921,37 +2921,37 @@
         <v>41000</v>
       </c>
       <c r="C14">
-        <v>24834.63567742981</v>
+        <v>24764.28214699782</v>
       </c>
       <c r="D14">
-        <v>536.8526243457586</v>
+        <v>526.588085656806</v>
       </c>
       <c r="E14">
-        <v>1.665249091501127</v>
+        <v>1.664829073663475</v>
       </c>
       <c r="F14">
-        <v>41434.49877851217</v>
+        <v>41252.9605614707</v>
       </c>
       <c r="G14">
-        <v>434.4987785121702</v>
+        <v>252.9605614707034</v>
       </c>
       <c r="H14">
-        <v>434.4987785121702</v>
+        <v>252.9605614707034</v>
       </c>
       <c r="I14">
-        <v>4672248.2292731</v>
+        <v>4204100.726382361</v>
       </c>
       <c r="J14">
-        <v>1519.238580448932</v>
+        <v>1435.287261842604</v>
       </c>
       <c r="K14">
-        <v>1.059753118322366</v>
+        <v>0.6169769791968376</v>
       </c>
       <c r="L14">
-        <v>8.614673874719955</v>
+        <v>8.201126532292379</v>
       </c>
       <c r="M14">
-        <v>-0.7407656440841682</v>
+        <v>-0.6482617437134838</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2959,10 +2959,10 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.4728204293861066</v>
+        <v>0.4720252771822506</v>
       </c>
       <c r="F15">
-        <v>11498.47154993854</v>
+        <v>11444.21002883369</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2970,10 +2970,10 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.6825447032705417</v>
+        <v>0.6832416543324172</v>
       </c>
       <c r="F16">
-        <v>16966.76186378998</v>
+        <v>16925.17830895285</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2981,10 +2981,10 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>1.172953877819879</v>
+        <v>1.17141255569068</v>
       </c>
       <c r="F17">
-        <v>29789.85545321617</v>
+        <v>29635.38463216437</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2992,10 +2992,10 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>1.665249091501127</v>
+        <v>1.664829073663475</v>
       </c>
       <c r="F18">
-        <v>43190.72223570578</v>
+        <v>42995.56399370915</v>
       </c>
     </row>
   </sheetData>
